--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4483.552390175855</v>
+        <v>4923.967516503969</v>
       </c>
       <c r="AB2" t="n">
-        <v>6134.59418061036</v>
+        <v>6737.189586196611</v>
       </c>
       <c r="AC2" t="n">
-        <v>5549.117121969684</v>
+        <v>6094.201667794725</v>
       </c>
       <c r="AD2" t="n">
-        <v>4483552.390175855</v>
+        <v>4923967.516503969</v>
       </c>
       <c r="AE2" t="n">
-        <v>6134594.180610361</v>
+        <v>6737189.586196612</v>
       </c>
       <c r="AF2" t="n">
         <v>1.789281737430812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.71484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>5549117.121969684</v>
+        <v>6094201.667794725</v>
       </c>
     </row>
     <row r="3">
@@ -3133,28 +3133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2199.627601027201</v>
+        <v>2483.426387029742</v>
       </c>
       <c r="AB3" t="n">
-        <v>3009.627524446556</v>
+        <v>3397.933543774053</v>
       </c>
       <c r="AC3" t="n">
-        <v>2722.392897552023</v>
+        <v>3073.63953538581</v>
       </c>
       <c r="AD3" t="n">
-        <v>2199627.601027201</v>
+        <v>2483426.387029742</v>
       </c>
       <c r="AE3" t="n">
-        <v>3009627.524446556</v>
+        <v>3397933.543774053</v>
       </c>
       <c r="AF3" t="n">
         <v>2.822060363563067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.61848958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2722392.897552023</v>
+        <v>3073639.53538581</v>
       </c>
     </row>
     <row r="4">
@@ -3239,28 +3239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1784.04619835536</v>
+        <v>2028.725064695288</v>
       </c>
       <c r="AB4" t="n">
-        <v>2441.010715153245</v>
+        <v>2775.791134549282</v>
       </c>
       <c r="AC4" t="n">
-        <v>2208.044078479074</v>
+        <v>2510.873524515223</v>
       </c>
       <c r="AD4" t="n">
-        <v>1784046.19835536</v>
+        <v>2028725.064695288</v>
       </c>
       <c r="AE4" t="n">
-        <v>2441010.715153245</v>
+        <v>2775791.134549282</v>
       </c>
       <c r="AF4" t="n">
         <v>3.223455417837157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.69140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2208044.078479074</v>
+        <v>2510873.524515223</v>
       </c>
     </row>
     <row r="5">
@@ -3345,28 +3345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1596.666555301306</v>
+        <v>1831.522734952105</v>
       </c>
       <c r="AB5" t="n">
-        <v>2184.629620920264</v>
+        <v>2505.970207041881</v>
       </c>
       <c r="AC5" t="n">
-        <v>1976.131636046564</v>
+        <v>2266.803927633079</v>
       </c>
       <c r="AD5" t="n">
-        <v>1596666.555301306</v>
+        <v>1831522.734952105</v>
       </c>
       <c r="AE5" t="n">
-        <v>2184629.620920264</v>
+        <v>2505970.207041881</v>
       </c>
       <c r="AF5" t="n">
         <v>3.439943561223424e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1976131.636046564</v>
+        <v>2266803.927633079</v>
       </c>
     </row>
     <row r="6">
@@ -3451,28 +3451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1480.985094079364</v>
+        <v>1706.052752459814</v>
       </c>
       <c r="AB6" t="n">
-        <v>2026.349142170521</v>
+        <v>2334.296641650967</v>
       </c>
       <c r="AC6" t="n">
-        <v>1832.957224040649</v>
+        <v>2111.514646377711</v>
       </c>
       <c r="AD6" t="n">
-        <v>1480985.094079364</v>
+        <v>1706052.752459814</v>
       </c>
       <c r="AE6" t="n">
-        <v>2026349.142170521</v>
+        <v>2334296.641650967</v>
       </c>
       <c r="AF6" t="n">
         <v>3.573741912648121e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.91927083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1832957.224040649</v>
+        <v>2111514.646377712</v>
       </c>
     </row>
     <row r="7">
@@ -3557,28 +3557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1398.94920229642</v>
+        <v>1614.262504825303</v>
       </c>
       <c r="AB7" t="n">
-        <v>1914.104015864981</v>
+        <v>2208.705175337503</v>
       </c>
       <c r="AC7" t="n">
-        <v>1731.424615052685</v>
+        <v>1997.909453340474</v>
       </c>
       <c r="AD7" t="n">
-        <v>1398949.20229642</v>
+        <v>1614262.504825303</v>
       </c>
       <c r="AE7" t="n">
-        <v>1914104.01586498</v>
+        <v>2208705.175337503</v>
       </c>
       <c r="AF7" t="n">
         <v>3.666074829036696e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1731424.615052685</v>
+        <v>1997909.453340474</v>
       </c>
     </row>
     <row r="8">
@@ -3663,28 +3663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1350.18774335548</v>
+        <v>1555.679370225091</v>
       </c>
       <c r="AB8" t="n">
-        <v>1847.386436538242</v>
+        <v>2128.549146072</v>
       </c>
       <c r="AC8" t="n">
-        <v>1671.07446785818</v>
+        <v>1925.403403008377</v>
       </c>
       <c r="AD8" t="n">
-        <v>1350187.74335548</v>
+        <v>1555679.370225091</v>
       </c>
       <c r="AE8" t="n">
-        <v>1847386.436538242</v>
+        <v>2128549.146071999</v>
       </c>
       <c r="AF8" t="n">
         <v>3.716942310389148e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.2265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1671074.46785818</v>
+        <v>1925403.403008377</v>
       </c>
     </row>
     <row r="9">
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1347.242321685471</v>
+        <v>1552.733948555082</v>
       </c>
       <c r="AB9" t="n">
-        <v>1843.356380666502</v>
+        <v>2124.51909020026</v>
       </c>
       <c r="AC9" t="n">
-        <v>1667.42903486262</v>
+        <v>1921.757970012817</v>
       </c>
       <c r="AD9" t="n">
-        <v>1347242.321685471</v>
+        <v>1552733.948555082</v>
       </c>
       <c r="AE9" t="n">
-        <v>1843356.380666502</v>
+        <v>2124519.09020026</v>
       </c>
       <c r="AF9" t="n">
         <v>3.724415731820077e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.14192708333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1667429.03486262</v>
+        <v>1921757.970012817</v>
       </c>
     </row>
     <row r="10">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1351.222782026375</v>
+        <v>1556.714408895986</v>
       </c>
       <c r="AB10" t="n">
-        <v>1848.802622110444</v>
+        <v>2129.965331644202</v>
       </c>
       <c r="AC10" t="n">
-        <v>1672.355494667</v>
+        <v>1926.684429817197</v>
       </c>
       <c r="AD10" t="n">
-        <v>1351222.782026375</v>
+        <v>1556714.408895986</v>
       </c>
       <c r="AE10" t="n">
-        <v>1848802.622110444</v>
+        <v>2129965.331644202</v>
       </c>
       <c r="AF10" t="n">
         <v>3.724415731820077e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.14192708333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1672355.494667</v>
+        <v>1926684.429817197</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3176.549255964437</v>
+        <v>3544.341792830984</v>
       </c>
       <c r="AB2" t="n">
-        <v>4346.294831473418</v>
+        <v>4849.524806275818</v>
       </c>
       <c r="AC2" t="n">
-        <v>3931.490552820538</v>
+        <v>4386.692965115486</v>
       </c>
       <c r="AD2" t="n">
-        <v>3176549.255964437</v>
+        <v>3544341.792830984</v>
       </c>
       <c r="AE2" t="n">
-        <v>4346294.831473418</v>
+        <v>4849524.806275818</v>
       </c>
       <c r="AF2" t="n">
         <v>2.327100994906784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.79557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3931490.552820538</v>
+        <v>4386692.965115486</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1795.573594812535</v>
+        <v>2047.166387488861</v>
       </c>
       <c r="AB3" t="n">
-        <v>2456.783007538791</v>
+        <v>2801.023365969189</v>
       </c>
       <c r="AC3" t="n">
-        <v>2222.311085415895</v>
+        <v>2533.697627182075</v>
       </c>
       <c r="AD3" t="n">
-        <v>1795573.594812535</v>
+        <v>2047166.387488861</v>
       </c>
       <c r="AE3" t="n">
-        <v>2456783.007538791</v>
+        <v>2801023.365969189</v>
       </c>
       <c r="AF3" t="n">
         <v>3.345042815281447e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.34114583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2222311.085415895</v>
+        <v>2533697.627182075</v>
       </c>
     </row>
     <row r="4">
@@ -4384,28 +4384,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1499.489199011899</v>
+        <v>1722.074509656681</v>
       </c>
       <c r="AB4" t="n">
-        <v>2051.667274882711</v>
+        <v>2356.218316677763</v>
       </c>
       <c r="AC4" t="n">
-        <v>1855.85902970101</v>
+        <v>2131.344147507214</v>
       </c>
       <c r="AD4" t="n">
-        <v>1499489.199011899</v>
+        <v>1722074.509656681</v>
       </c>
       <c r="AE4" t="n">
-        <v>2051667.274882711</v>
+        <v>2356218.316677763</v>
       </c>
       <c r="AF4" t="n">
         <v>3.728848295624835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.0546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1855859.02970101</v>
+        <v>2131344.147507214</v>
       </c>
     </row>
     <row r="5">
@@ -4490,28 +4490,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1341.348801240681</v>
+        <v>1563.933100855607</v>
       </c>
       <c r="AB5" t="n">
-        <v>1835.292605990169</v>
+        <v>2139.842264449568</v>
       </c>
       <c r="AC5" t="n">
-        <v>1660.134855523818</v>
+        <v>1935.618722017981</v>
       </c>
       <c r="AD5" t="n">
-        <v>1341348.801240681</v>
+        <v>1563933.100855607</v>
       </c>
       <c r="AE5" t="n">
-        <v>1835292.605990169</v>
+        <v>2139842.264449568</v>
       </c>
       <c r="AF5" t="n">
         <v>3.936709957831426e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.62630208333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1660134.855523817</v>
+        <v>1935618.722017981</v>
       </c>
     </row>
     <row r="6">
@@ -4596,28 +4596,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1265.629703686872</v>
+        <v>1478.56761957047</v>
       </c>
       <c r="AB6" t="n">
-        <v>1731.690396226223</v>
+        <v>2023.041446896004</v>
       </c>
       <c r="AC6" t="n">
-        <v>1566.420295253127</v>
+        <v>1829.965210560752</v>
       </c>
       <c r="AD6" t="n">
-        <v>1265629.703686872</v>
+        <v>1478567.619570469</v>
       </c>
       <c r="AE6" t="n">
-        <v>1731690.396226223</v>
+        <v>2023041.446896004</v>
       </c>
       <c r="AF6" t="n">
         <v>4.032727273876095e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.58463541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1566420.295253127</v>
+        <v>1829965.210560752</v>
       </c>
     </row>
     <row r="7">
@@ -4702,28 +4702,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1259.5030949375</v>
+        <v>1472.339525594613</v>
       </c>
       <c r="AB7" t="n">
-        <v>1723.307699848431</v>
+        <v>2014.519893954122</v>
       </c>
       <c r="AC7" t="n">
-        <v>1558.837631652444</v>
+        <v>1822.256942671569</v>
       </c>
       <c r="AD7" t="n">
-        <v>1259503.0949375</v>
+        <v>1472339.525594613</v>
       </c>
       <c r="AE7" t="n">
-        <v>1723307.699848431</v>
+        <v>2014519.893954122</v>
       </c>
       <c r="AF7" t="n">
         <v>4.044333762628747e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.4609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1558837.631652444</v>
+        <v>1822256.942671569</v>
       </c>
     </row>
   </sheetData>
@@ -4999,28 +4999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1362.033775215944</v>
+        <v>1605.174815222349</v>
       </c>
       <c r="AB2" t="n">
-        <v>1863.594699939771</v>
+        <v>2196.27099750217</v>
       </c>
       <c r="AC2" t="n">
-        <v>1685.735837349107</v>
+        <v>1986.661975986268</v>
       </c>
       <c r="AD2" t="n">
-        <v>1362033.775215944</v>
+        <v>1605174.815222349</v>
       </c>
       <c r="AE2" t="n">
-        <v>1863594.699939771</v>
+        <v>2196270.997502171</v>
       </c>
       <c r="AF2" t="n">
         <v>4.683681966530844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.17838541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1685735.837349107</v>
+        <v>1986661.975986268</v>
       </c>
     </row>
     <row r="3">
@@ -5105,28 +5105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1090.596798769347</v>
+        <v>1305.671393556572</v>
       </c>
       <c r="AB3" t="n">
-        <v>1492.202653811285</v>
+        <v>1786.477202820629</v>
       </c>
       <c r="AC3" t="n">
-        <v>1349.788926851114</v>
+        <v>1615.978325919929</v>
       </c>
       <c r="AD3" t="n">
-        <v>1090596.798769347</v>
+        <v>1305671.393556572</v>
       </c>
       <c r="AE3" t="n">
-        <v>1492202.653811286</v>
+        <v>1786477.202820629</v>
       </c>
       <c r="AF3" t="n">
         <v>5.303705583513623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.1953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1349788.926851114</v>
+        <v>1615978.325919929</v>
       </c>
     </row>
     <row r="4">
@@ -5211,28 +5211,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1095.856017123717</v>
+        <v>1310.930611910942</v>
       </c>
       <c r="AB4" t="n">
-        <v>1499.398548384074</v>
+        <v>1793.673097393417</v>
       </c>
       <c r="AC4" t="n">
-        <v>1356.298055345377</v>
+        <v>1622.487454414192</v>
       </c>
       <c r="AD4" t="n">
-        <v>1095856.017123717</v>
+        <v>1310930.611910942</v>
       </c>
       <c r="AE4" t="n">
-        <v>1499398.548384074</v>
+        <v>1793673.097393417</v>
       </c>
       <c r="AF4" t="n">
         <v>5.303337398467909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.1953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1356298.055345377</v>
+        <v>1622487.454414192</v>
       </c>
     </row>
   </sheetData>
@@ -5508,28 +5508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1861.483446477323</v>
+        <v>2145.892219494128</v>
       </c>
       <c r="AB2" t="n">
-        <v>2546.963774323992</v>
+        <v>2936.104404795111</v>
       </c>
       <c r="AC2" t="n">
-        <v>2303.885126388618</v>
+        <v>2655.886721249879</v>
       </c>
       <c r="AD2" t="n">
-        <v>1861483.446477323</v>
+        <v>2145892.219494128</v>
       </c>
       <c r="AE2" t="n">
-        <v>2546963.774323992</v>
+        <v>2936104.404795111</v>
       </c>
       <c r="AF2" t="n">
         <v>3.584807672072265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.90364583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2303885.126388618</v>
+        <v>2655886.721249878</v>
       </c>
     </row>
     <row r="3">
@@ -5614,28 +5614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1241.388702153886</v>
+        <v>1468.902054399817</v>
       </c>
       <c r="AB3" t="n">
-        <v>1698.522788491281</v>
+        <v>2009.816594214877</v>
       </c>
       <c r="AC3" t="n">
-        <v>1536.418157449378</v>
+        <v>1818.002519258315</v>
       </c>
       <c r="AD3" t="n">
-        <v>1241388.702153886</v>
+        <v>1468902.054399817</v>
       </c>
       <c r="AE3" t="n">
-        <v>1698522.788491281</v>
+        <v>2009816.594214877</v>
       </c>
       <c r="AF3" t="n">
         <v>4.556656269819865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.55338541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1536418.157449378</v>
+        <v>1818002.519258315</v>
       </c>
     </row>
     <row r="4">
@@ -5720,28 +5720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1138.526745939834</v>
+        <v>1356.557528057288</v>
       </c>
       <c r="AB4" t="n">
-        <v>1557.782522049981</v>
+        <v>1856.101856982322</v>
       </c>
       <c r="AC4" t="n">
-        <v>1409.109944507031</v>
+        <v>1678.958100807247</v>
       </c>
       <c r="AD4" t="n">
-        <v>1138526.745939835</v>
+        <v>1356557.528057287</v>
       </c>
       <c r="AE4" t="n">
-        <v>1557782.52204998</v>
+        <v>1856101.856982322</v>
       </c>
       <c r="AF4" t="n">
         <v>4.753385464311423e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1409109.944507031</v>
+        <v>1678958.100807247</v>
       </c>
     </row>
     <row r="5">
@@ -5826,28 +5826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1143.723785654766</v>
+        <v>1361.754567772219</v>
       </c>
       <c r="AB5" t="n">
-        <v>1564.89334106516</v>
+        <v>1863.212675997503</v>
       </c>
       <c r="AC5" t="n">
-        <v>1415.5421169355</v>
+        <v>1685.390273235716</v>
       </c>
       <c r="AD5" t="n">
-        <v>1143723.785654766</v>
+        <v>1361754.567772219</v>
       </c>
       <c r="AE5" t="n">
-        <v>1564893.34106516</v>
+        <v>1863212.675997503</v>
       </c>
       <c r="AF5" t="n">
         <v>4.752110072450862e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.67838541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1415542.1169355</v>
+        <v>1685390.273235715</v>
       </c>
     </row>
   </sheetData>
@@ -6123,28 +6123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1084.105801279246</v>
+        <v>1315.318550221114</v>
       </c>
       <c r="AB2" t="n">
-        <v>1483.321384682731</v>
+        <v>1799.67686817157</v>
       </c>
       <c r="AC2" t="n">
-        <v>1341.755273583249</v>
+        <v>1627.918233735623</v>
       </c>
       <c r="AD2" t="n">
-        <v>1084105.801279246</v>
+        <v>1315318.550221114</v>
       </c>
       <c r="AE2" t="n">
-        <v>1483321.384682731</v>
+        <v>1799676.86817157</v>
       </c>
       <c r="AF2" t="n">
         <v>5.720860170920349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.99479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1341755.273583249</v>
+        <v>1627918.233735623</v>
       </c>
     </row>
     <row r="3">
@@ -6229,28 +6229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1066.183911240601</v>
+        <v>1288.112262602368</v>
       </c>
       <c r="AB3" t="n">
-        <v>1458.79986407387</v>
+        <v>1762.452025194902</v>
       </c>
       <c r="AC3" t="n">
-        <v>1319.574052485127</v>
+        <v>1594.246077527253</v>
       </c>
       <c r="AD3" t="n">
-        <v>1066183.911240601</v>
+        <v>1288112.262602368</v>
       </c>
       <c r="AE3" t="n">
-        <v>1458799.86407387</v>
+        <v>1762452.025194902</v>
       </c>
       <c r="AF3" t="n">
         <v>5.814478846870837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.22005208333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1319574.052485127</v>
+        <v>1594246.077527253</v>
       </c>
     </row>
   </sheetData>
@@ -6526,28 +6526,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3472.820401616631</v>
+        <v>3851.36713564439</v>
       </c>
       <c r="AB2" t="n">
-        <v>4751.666083515243</v>
+        <v>5269.61042531531</v>
       </c>
       <c r="AC2" t="n">
-        <v>4298.173741509603</v>
+        <v>4766.686202267701</v>
       </c>
       <c r="AD2" t="n">
-        <v>3472820.401616631</v>
+        <v>3851367.13564439</v>
       </c>
       <c r="AE2" t="n">
-        <v>4751666.083515244</v>
+        <v>5269610.42531531</v>
       </c>
       <c r="AF2" t="n">
         <v>2.175641904914579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.02473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4298173.741509603</v>
+        <v>4766686.202267701</v>
       </c>
     </row>
     <row r="3">
@@ -6632,28 +6632,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1891.163065960354</v>
+        <v>2153.16849018341</v>
       </c>
       <c r="AB3" t="n">
-        <v>2587.572739073075</v>
+        <v>2946.060119358594</v>
       </c>
       <c r="AC3" t="n">
-        <v>2340.618428537088</v>
+        <v>2664.892276388356</v>
       </c>
       <c r="AD3" t="n">
-        <v>1891163.065960354</v>
+        <v>2153168.49018341</v>
       </c>
       <c r="AE3" t="n">
-        <v>2587572.739073075</v>
+        <v>2946060.119358594</v>
       </c>
       <c r="AF3" t="n">
         <v>3.202198922993062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.33723958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2340618.428537088</v>
+        <v>2664892.276388356</v>
       </c>
     </row>
     <row r="4">
@@ -6738,28 +6738,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1562.95595467113</v>
+        <v>1795.936078024192</v>
       </c>
       <c r="AB4" t="n">
-        <v>2138.50528993132</v>
+        <v>2457.27897306061</v>
       </c>
       <c r="AC4" t="n">
-        <v>1934.409346471299</v>
+        <v>2222.759716684405</v>
       </c>
       <c r="AD4" t="n">
-        <v>1562955.954671131</v>
+        <v>1795936.078024192</v>
       </c>
       <c r="AE4" t="n">
-        <v>2138505.28993132</v>
+        <v>2457278.973060611</v>
       </c>
       <c r="AF4" t="n">
         <v>3.591662505829759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.66015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1934409.346471299</v>
+        <v>2222759.716684405</v>
       </c>
     </row>
     <row r="5">
@@ -6844,28 +6844,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1413.186112897459</v>
+        <v>1626.715224463943</v>
       </c>
       <c r="AB5" t="n">
-        <v>1933.583585037489</v>
+        <v>2225.743535722308</v>
       </c>
       <c r="AC5" t="n">
-        <v>1749.045081483116</v>
+        <v>2013.321696523642</v>
       </c>
       <c r="AD5" t="n">
-        <v>1413186.112897459</v>
+        <v>1626715.224463943</v>
       </c>
       <c r="AE5" t="n">
-        <v>1933583.585037488</v>
+        <v>2225743.535722308</v>
       </c>
       <c r="AF5" t="n">
         <v>3.796304639574091e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.14713541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1749045.081483116</v>
+        <v>2013321.696523642</v>
       </c>
     </row>
     <row r="6">
@@ -6950,28 +6950,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1302.50324126178</v>
+        <v>1516.065507217188</v>
       </c>
       <c r="AB6" t="n">
-        <v>1782.142397081881</v>
+        <v>2074.347711064294</v>
       </c>
       <c r="AC6" t="n">
-        <v>1612.057227956949</v>
+        <v>1876.374876885614</v>
       </c>
       <c r="AD6" t="n">
-        <v>1302503.24126178</v>
+        <v>1516065.507217189</v>
       </c>
       <c r="AE6" t="n">
-        <v>1782142.397081881</v>
+        <v>2074347.711064294</v>
       </c>
       <c r="AF6" t="n">
         <v>3.922951092155489e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.72135416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1612057.22795695</v>
+        <v>1876374.876885614</v>
       </c>
     </row>
     <row r="7">
@@ -7056,28 +7056,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1277.860499366592</v>
+        <v>1491.321280095515</v>
       </c>
       <c r="AB7" t="n">
-        <v>1748.42511045984</v>
+        <v>2040.491567878163</v>
       </c>
       <c r="AC7" t="n">
-        <v>1581.557871847607</v>
+        <v>1845.749916487773</v>
       </c>
       <c r="AD7" t="n">
-        <v>1277860.499366592</v>
+        <v>1491321.280095515</v>
       </c>
       <c r="AE7" t="n">
-        <v>1748425.11045984</v>
+        <v>2040491.567878163</v>
       </c>
       <c r="AF7" t="n">
         <v>3.959246112102597e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.32421875000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>1581557.871847607</v>
+        <v>1845749.916487773</v>
       </c>
     </row>
     <row r="8">
@@ -7162,28 +7162,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1285.292401053351</v>
+        <v>1498.753181782274</v>
       </c>
       <c r="AB8" t="n">
-        <v>1758.593766220026</v>
+        <v>2050.660223638349</v>
       </c>
       <c r="AC8" t="n">
-        <v>1590.756045373839</v>
+        <v>1854.948090014005</v>
       </c>
       <c r="AD8" t="n">
-        <v>1285292.401053351</v>
+        <v>1498753.181782274</v>
       </c>
       <c r="AE8" t="n">
-        <v>1758593.766220026</v>
+        <v>2050660.223638349</v>
       </c>
       <c r="AF8" t="n">
         <v>3.955127528278811e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.36979166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1590756.045373839</v>
+        <v>1854948.090014005</v>
       </c>
     </row>
   </sheetData>
@@ -7459,28 +7459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1058.388335981949</v>
+        <v>1288.024809833676</v>
       </c>
       <c r="AB2" t="n">
-        <v>1448.133614088473</v>
+        <v>1762.332368458634</v>
       </c>
       <c r="AC2" t="n">
-        <v>1309.925774428162</v>
+        <v>1594.137840661955</v>
       </c>
       <c r="AD2" t="n">
-        <v>1058388.335981949</v>
+        <v>1288024.809833676</v>
       </c>
       <c r="AE2" t="n">
-        <v>1448133.614088473</v>
+        <v>1762332.368458634</v>
       </c>
       <c r="AF2" t="n">
         <v>6.118017147841167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.1015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1309925.774428162</v>
+        <v>1594137.840661955</v>
       </c>
     </row>
     <row r="3">
@@ -7565,28 +7565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1064.017549906021</v>
+        <v>1293.654023757748</v>
       </c>
       <c r="AB3" t="n">
-        <v>1455.83575292278</v>
+        <v>1770.03450729294</v>
       </c>
       <c r="AC3" t="n">
-        <v>1316.892831942142</v>
+        <v>1601.104898175935</v>
       </c>
       <c r="AD3" t="n">
-        <v>1064017.549906021</v>
+        <v>1293654.023757748</v>
       </c>
       <c r="AE3" t="n">
-        <v>1455835.75292278</v>
+        <v>1770034.50729294</v>
       </c>
       <c r="AF3" t="n">
         <v>6.121247113904586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.07552083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1316892.831942142</v>
+        <v>1601104.898175935</v>
       </c>
     </row>
   </sheetData>
@@ -7862,28 +7862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2457.400590834808</v>
+        <v>2773.717750466894</v>
       </c>
       <c r="AB2" t="n">
-        <v>3362.323901243048</v>
+        <v>3795.122993979886</v>
       </c>
       <c r="AC2" t="n">
-        <v>3041.428427159518</v>
+        <v>3432.921781922878</v>
       </c>
       <c r="AD2" t="n">
-        <v>2457400.590834808</v>
+        <v>2773717.750466894</v>
       </c>
       <c r="AE2" t="n">
-        <v>3362323.901243048</v>
+        <v>3795122.993979886</v>
       </c>
       <c r="AF2" t="n">
         <v>2.859108098568378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3041428.427159518</v>
+        <v>3432921.781922878</v>
       </c>
     </row>
     <row r="3">
@@ -7968,28 +7968,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1517.403127645042</v>
+        <v>1756.978571589602</v>
       </c>
       <c r="AB3" t="n">
-        <v>2076.177902345331</v>
+        <v>2403.97559407292</v>
       </c>
       <c r="AC3" t="n">
-        <v>1878.030397279479</v>
+        <v>2174.543537375537</v>
       </c>
       <c r="AD3" t="n">
-        <v>1517403.127645042</v>
+        <v>1756978.571589602</v>
       </c>
       <c r="AE3" t="n">
-        <v>2076177.902345331</v>
+        <v>2403975.59407292</v>
       </c>
       <c r="AF3" t="n">
         <v>3.856411354860738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.42447916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1878030.397279479</v>
+        <v>2174543.537375537</v>
       </c>
     </row>
     <row r="4">
@@ -8074,28 +8074,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1279.3829528594</v>
+        <v>1490.261396290743</v>
       </c>
       <c r="AB4" t="n">
-        <v>1750.508198494607</v>
+        <v>2039.0413880977</v>
       </c>
       <c r="AC4" t="n">
-        <v>1583.442152883968</v>
+        <v>1844.438139830217</v>
       </c>
       <c r="AD4" t="n">
-        <v>1279382.9528594</v>
+        <v>1490261.396290743</v>
       </c>
       <c r="AE4" t="n">
-        <v>1750508.198494607</v>
+        <v>2039041.3880977</v>
       </c>
       <c r="AF4" t="n">
         <v>4.228428128922053e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1583442.152883968</v>
+        <v>1844438.139830217</v>
       </c>
     </row>
     <row r="5">
@@ -8180,28 +8180,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1192.973567457914</v>
+        <v>1413.405278224211</v>
       </c>
       <c r="AB5" t="n">
-        <v>1632.279065275255</v>
+        <v>1933.883456706443</v>
       </c>
       <c r="AC5" t="n">
-        <v>1476.496642203441</v>
+        <v>1749.316333820858</v>
       </c>
       <c r="AD5" t="n">
-        <v>1192973.567457913</v>
+        <v>1413405.278224211</v>
       </c>
       <c r="AE5" t="n">
-        <v>1632279.065275255</v>
+        <v>1933883.456706443</v>
       </c>
       <c r="AF5" t="n">
         <v>4.351764453398819e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.91015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1476496.642203441</v>
+        <v>1749316.333820858</v>
       </c>
     </row>
     <row r="6">
@@ -8286,28 +8286,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1197.104358671046</v>
+        <v>1417.536069437344</v>
       </c>
       <c r="AB6" t="n">
-        <v>1637.93099605071</v>
+        <v>1939.535387481898</v>
       </c>
       <c r="AC6" t="n">
-        <v>1481.60916063822</v>
+        <v>1754.428852255638</v>
       </c>
       <c r="AD6" t="n">
-        <v>1197104.358671046</v>
+        <v>1417536.069437344</v>
       </c>
       <c r="AE6" t="n">
-        <v>1637930.99605071</v>
+        <v>1939535.387481898</v>
       </c>
       <c r="AF6" t="n">
         <v>4.350903967414097e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.91666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1481609.16063822</v>
+        <v>1754428.852255638</v>
       </c>
     </row>
   </sheetData>
@@ -8583,28 +8583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2920.562685689655</v>
+        <v>3277.550535470222</v>
       </c>
       <c r="AB2" t="n">
-        <v>3996.042712693004</v>
+        <v>4484.489237955213</v>
       </c>
       <c r="AC2" t="n">
-        <v>3614.666004674605</v>
+        <v>4056.495879104773</v>
       </c>
       <c r="AD2" t="n">
-        <v>2920562.685689655</v>
+        <v>3277550.535470222</v>
       </c>
       <c r="AE2" t="n">
-        <v>3996042.712693003</v>
+        <v>4484489.237955213</v>
       </c>
       <c r="AF2" t="n">
         <v>2.486756315157577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3614666.004674605</v>
+        <v>4056495.879104773</v>
       </c>
     </row>
     <row r="3">
@@ -8689,28 +8689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1700.204988158065</v>
+        <v>1950.997688781978</v>
       </c>
       <c r="AB3" t="n">
-        <v>2326.295472548161</v>
+        <v>2669.441109734878</v>
       </c>
       <c r="AC3" t="n">
-        <v>2104.277097624365</v>
+        <v>2414.673396805909</v>
       </c>
       <c r="AD3" t="n">
-        <v>1700204.988158065</v>
+        <v>1950997.688781978</v>
       </c>
       <c r="AE3" t="n">
-        <v>2326295.472548161</v>
+        <v>2669441.109734877</v>
       </c>
       <c r="AF3" t="n">
         <v>3.502847382200189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.31901041666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2104277.097624365</v>
+        <v>2414673.396805909</v>
       </c>
     </row>
     <row r="4">
@@ -8795,28 +8795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1422.697272281048</v>
+        <v>1644.570867023452</v>
       </c>
       <c r="AB4" t="n">
-        <v>1946.597172908854</v>
+        <v>2250.174413607581</v>
       </c>
       <c r="AC4" t="n">
-        <v>1760.816670792723</v>
+        <v>2035.420925712498</v>
       </c>
       <c r="AD4" t="n">
-        <v>1422697.272281048</v>
+        <v>1644570.867023452</v>
       </c>
       <c r="AE4" t="n">
-        <v>1946597.172908854</v>
+        <v>2250174.413607582</v>
       </c>
       <c r="AF4" t="n">
         <v>3.881884817281365e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.40364583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1760816.670792723</v>
+        <v>2035420.925712498</v>
       </c>
     </row>
     <row r="5">
@@ -8901,28 +8901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1284.361669864783</v>
+        <v>1496.584174173757</v>
       </c>
       <c r="AB5" t="n">
-        <v>1757.320298746865</v>
+        <v>2047.692491738514</v>
       </c>
       <c r="AC5" t="n">
-        <v>1589.604115848994</v>
+        <v>1852.263594281452</v>
       </c>
       <c r="AD5" t="n">
-        <v>1284361.669864783</v>
+        <v>1496584.174173757</v>
       </c>
       <c r="AE5" t="n">
-        <v>1757320.298746865</v>
+        <v>2047692.491738514</v>
       </c>
       <c r="AF5" t="n">
         <v>4.077630578398287e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.22916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1589604.115848994</v>
+        <v>1852263.594281452</v>
       </c>
     </row>
     <row r="6">
@@ -9007,28 +9007,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1233.8282477259</v>
+        <v>1446.118071842579</v>
       </c>
       <c r="AB6" t="n">
-        <v>1688.178241199203</v>
+        <v>1978.642544121693</v>
       </c>
       <c r="AC6" t="n">
-        <v>1527.060879232193</v>
+        <v>1789.80367675297</v>
       </c>
       <c r="AD6" t="n">
-        <v>1233828.2477259</v>
+        <v>1446118.071842579</v>
       </c>
       <c r="AE6" t="n">
-        <v>1688178.241199203</v>
+        <v>1978642.544121693</v>
       </c>
       <c r="AF6" t="n">
         <v>4.138005826986218e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.59765625000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>1527060.879232193</v>
+        <v>1789803.67675297</v>
       </c>
     </row>
     <row r="7">
@@ -9113,28 +9113,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1236.2883571253</v>
+        <v>1448.578181241978</v>
       </c>
       <c r="AB7" t="n">
-        <v>1691.544271411828</v>
+        <v>1982.008574334318</v>
       </c>
       <c r="AC7" t="n">
-        <v>1530.105660245578</v>
+        <v>1792.848457766356</v>
       </c>
       <c r="AD7" t="n">
-        <v>1236288.3571253</v>
+        <v>1448578.181241978</v>
       </c>
       <c r="AE7" t="n">
-        <v>1691544.271411828</v>
+        <v>1982008.574334318</v>
       </c>
       <c r="AF7" t="n">
         <v>4.142066942362087e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.55208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1530105.660245578</v>
+        <v>1792848.457766355</v>
       </c>
     </row>
   </sheetData>
@@ -9410,28 +9410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4111.045359482526</v>
+        <v>4540.473436785335</v>
       </c>
       <c r="AB2" t="n">
-        <v>5624.913627365367</v>
+        <v>6212.476067760803</v>
       </c>
       <c r="AC2" t="n">
-        <v>5088.079765385263</v>
+        <v>5619.5660711184</v>
       </c>
       <c r="AD2" t="n">
-        <v>4111045.359482526</v>
+        <v>4540473.436785336</v>
       </c>
       <c r="AE2" t="n">
-        <v>5624913.627365367</v>
+        <v>6212476.067760803</v>
       </c>
       <c r="AF2" t="n">
         <v>1.909137268822262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.93229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5088079.765385264</v>
+        <v>5619566.0711184</v>
       </c>
     </row>
     <row r="3">
@@ -9516,28 +9516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2090.699290570503</v>
+        <v>2363.923019274833</v>
       </c>
       <c r="AB3" t="n">
-        <v>2860.587004501631</v>
+        <v>3234.423763895278</v>
       </c>
       <c r="AC3" t="n">
-        <v>2587.576595651071</v>
+        <v>2925.734899411254</v>
       </c>
       <c r="AD3" t="n">
-        <v>2090699.290570503</v>
+        <v>2363923.019274833</v>
       </c>
       <c r="AE3" t="n">
-        <v>2860587.004501631</v>
+        <v>3234423.763895278</v>
       </c>
       <c r="AF3" t="n">
         <v>2.942832837863579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2587576.595651072</v>
+        <v>2925734.899411254</v>
       </c>
     </row>
     <row r="4">
@@ -9622,28 +9622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1704.871424787949</v>
+        <v>1948.873968369667</v>
       </c>
       <c r="AB4" t="n">
-        <v>2332.680297013823</v>
+        <v>2666.535341774822</v>
       </c>
       <c r="AC4" t="n">
-        <v>2110.052563404182</v>
+        <v>2412.04495126169</v>
       </c>
       <c r="AD4" t="n">
-        <v>1704871.424787949</v>
+        <v>1948873.968369667</v>
       </c>
       <c r="AE4" t="n">
-        <v>2332680.297013823</v>
+        <v>2666535.341774822</v>
       </c>
       <c r="AF4" t="n">
         <v>3.3400672779666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.97526041666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2110052.563404182</v>
+        <v>2412044.95126169</v>
       </c>
     </row>
     <row r="5">
@@ -9728,28 +9728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1539.096424239307</v>
+        <v>1763.540143478559</v>
       </c>
       <c r="AB5" t="n">
-        <v>2105.859627786306</v>
+        <v>2412.953426207512</v>
       </c>
       <c r="AC5" t="n">
-        <v>1904.87934050293</v>
+        <v>2182.66453781167</v>
       </c>
       <c r="AD5" t="n">
-        <v>1539096.424239307</v>
+        <v>1763540.143478559</v>
       </c>
       <c r="AE5" t="n">
-        <v>2105859.627786306</v>
+        <v>2412953.426207512</v>
       </c>
       <c r="AF5" t="n">
         <v>3.549021453708524e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.14973958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1904879.34050293</v>
+        <v>2182664.53781167</v>
       </c>
     </row>
     <row r="6">
@@ -9834,28 +9834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1424.011244989862</v>
+        <v>1638.692129252343</v>
       </c>
       <c r="AB6" t="n">
-        <v>1948.395008337437</v>
+        <v>2242.130865237544</v>
       </c>
       <c r="AC6" t="n">
-        <v>1762.442923331281</v>
+        <v>2028.145042309706</v>
       </c>
       <c r="AD6" t="n">
-        <v>1424011.244989862</v>
+        <v>1638692.129252343</v>
       </c>
       <c r="AE6" t="n">
-        <v>1948395.008337437</v>
+        <v>2242130.865237544</v>
       </c>
       <c r="AF6" t="n">
         <v>3.68463246764704e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.48958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1762442.923331281</v>
+        <v>2028145.042309706</v>
       </c>
     </row>
     <row r="7">
@@ -9940,28 +9940,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1344.337237431279</v>
+        <v>1558.983956274979</v>
       </c>
       <c r="AB7" t="n">
-        <v>1839.381516226645</v>
+        <v>2133.070626493504</v>
       </c>
       <c r="AC7" t="n">
-        <v>1663.833525906145</v>
+        <v>1929.49335968439</v>
       </c>
       <c r="AD7" t="n">
-        <v>1344337.237431279</v>
+        <v>1558983.956274979</v>
       </c>
       <c r="AE7" t="n">
-        <v>1839381.516226645</v>
+        <v>2133070.626493504</v>
       </c>
       <c r="AF7" t="n">
         <v>3.771512119045036e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.48697916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1663833.525906145</v>
+        <v>1929493.35968439</v>
       </c>
     </row>
     <row r="8">
@@ -10046,28 +10046,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1320.963131977693</v>
+        <v>1525.915346682184</v>
       </c>
       <c r="AB8" t="n">
-        <v>1807.400033952294</v>
+        <v>2087.824695964549</v>
       </c>
       <c r="AC8" t="n">
-        <v>1634.904311413767</v>
+        <v>1888.565637262056</v>
       </c>
       <c r="AD8" t="n">
-        <v>1320963.131977693</v>
+        <v>1525915.346682184</v>
       </c>
       <c r="AE8" t="n">
-        <v>1807400.033952294</v>
+        <v>2087824.695964549</v>
       </c>
       <c r="AF8" t="n">
         <v>3.798831216226842e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.18098958333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1634904.311413767</v>
+        <v>1888565.637262056</v>
       </c>
     </row>
     <row r="9">
@@ -10152,28 +10152,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1323.680668497724</v>
+        <v>1528.632883202215</v>
       </c>
       <c r="AB9" t="n">
-        <v>1811.11828730825</v>
+        <v>2091.542949320505</v>
       </c>
       <c r="AC9" t="n">
-        <v>1638.267699888031</v>
+        <v>1891.929025736321</v>
       </c>
       <c r="AD9" t="n">
-        <v>1323680.668497724</v>
+        <v>1528632.883202215</v>
       </c>
       <c r="AE9" t="n">
-        <v>1811118.28730825</v>
+        <v>2091542.949320505</v>
       </c>
       <c r="AF9" t="n">
         <v>3.797354508271068e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.19401041666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1638267.699888031</v>
+        <v>1891929.025736321</v>
       </c>
     </row>
   </sheetData>
@@ -10449,28 +10449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2053.851316707195</v>
+        <v>2348.82766772732</v>
       </c>
       <c r="AB2" t="n">
-        <v>2810.169981043978</v>
+        <v>3213.76963794806</v>
       </c>
       <c r="AC2" t="n">
-        <v>2541.971302151479</v>
+        <v>2907.051974256192</v>
       </c>
       <c r="AD2" t="n">
-        <v>2053851.316707195</v>
+        <v>2348827.66772732</v>
       </c>
       <c r="AE2" t="n">
-        <v>2810169.981043978</v>
+        <v>3213769.63794806</v>
       </c>
       <c r="AF2" t="n">
         <v>3.312148585359516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.30598958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2541971.302151479</v>
+        <v>2907051.974256192</v>
       </c>
     </row>
     <row r="3">
@@ -10555,28 +10555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1333.465895071457</v>
+        <v>1561.804052167137</v>
       </c>
       <c r="AB3" t="n">
-        <v>1824.506866000161</v>
+        <v>2136.929206107004</v>
       </c>
       <c r="AC3" t="n">
-        <v>1650.378491420574</v>
+        <v>1932.983681875128</v>
       </c>
       <c r="AD3" t="n">
-        <v>1333465.895071457</v>
+        <v>1561804.052167137</v>
       </c>
       <c r="AE3" t="n">
-        <v>1824506.866000161</v>
+        <v>2136929.206107004</v>
       </c>
       <c r="AF3" t="n">
         <v>4.295821430627011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.49739583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1650378.491420574</v>
+        <v>1932983.681875128</v>
       </c>
     </row>
     <row r="4">
@@ -10661,28 +10661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1165.073124314871</v>
+        <v>1374.405962850919</v>
       </c>
       <c r="AB4" t="n">
-        <v>1594.104448086263</v>
+        <v>1880.522872884339</v>
       </c>
       <c r="AC4" t="n">
-        <v>1441.965356900554</v>
+        <v>1701.048409226686</v>
       </c>
       <c r="AD4" t="n">
-        <v>1165073.124314871</v>
+        <v>1374405.962850919</v>
       </c>
       <c r="AE4" t="n">
-        <v>1594104.448086263</v>
+        <v>1880522.872884339</v>
       </c>
       <c r="AF4" t="n">
         <v>4.592825583533728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.49609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1441965.356900554</v>
+        <v>1701048.409226686</v>
       </c>
     </row>
     <row r="5">
@@ -10767,28 +10767,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1161.220207637853</v>
+        <v>1370.553046173901</v>
       </c>
       <c r="AB5" t="n">
-        <v>1588.832717510081</v>
+        <v>1875.251142308157</v>
       </c>
       <c r="AC5" t="n">
-        <v>1437.196752891643</v>
+        <v>1696.279805217774</v>
       </c>
       <c r="AD5" t="n">
-        <v>1161220.207637853</v>
+        <v>1370553.046173901</v>
       </c>
       <c r="AE5" t="n">
-        <v>1588832.717510081</v>
+        <v>1875251.142308157</v>
       </c>
       <c r="AF5" t="n">
         <v>4.609087174550316e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.33984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1437196.752891643</v>
+        <v>1696279.805217774</v>
       </c>
     </row>
   </sheetData>
@@ -11064,28 +11064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1522.48266223378</v>
+        <v>1776.206377960759</v>
       </c>
       <c r="AB2" t="n">
-        <v>2083.127945662893</v>
+        <v>2430.283927020885</v>
       </c>
       <c r="AC2" t="n">
-        <v>1884.31713821726</v>
+        <v>2198.341039950925</v>
       </c>
       <c r="AD2" t="n">
-        <v>1522482.66223378</v>
+        <v>1776206.377960759</v>
       </c>
       <c r="AE2" t="n">
-        <v>2083127.945662893</v>
+        <v>2430283.927020885</v>
       </c>
       <c r="AF2" t="n">
         <v>4.255618398918014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.37239583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1884317.13821726</v>
+        <v>2198341.039950925</v>
       </c>
     </row>
     <row r="3">
@@ -11170,28 +11170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1106.573447759133</v>
+        <v>1322.760749819229</v>
       </c>
       <c r="AB3" t="n">
-        <v>1514.06260979912</v>
+        <v>1809.859613988386</v>
       </c>
       <c r="AC3" t="n">
-        <v>1369.56259932011</v>
+        <v>1637.129152583256</v>
       </c>
       <c r="AD3" t="n">
-        <v>1106573.447759133</v>
+        <v>1322760.749819229</v>
       </c>
       <c r="AE3" t="n">
-        <v>1514062.60979912</v>
+        <v>1809859.613988386</v>
       </c>
       <c r="AF3" t="n">
         <v>5.082111265538507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.69401041666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1369562.59932011</v>
+        <v>1637129.152583256</v>
       </c>
     </row>
     <row r="4">
@@ -11276,28 +11276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1104.646284384079</v>
+        <v>1320.833586444174</v>
       </c>
       <c r="AB4" t="n">
-        <v>1511.425779848922</v>
+        <v>1807.222784038188</v>
       </c>
       <c r="AC4" t="n">
-        <v>1367.177424719545</v>
+        <v>1634.74397798269</v>
       </c>
       <c r="AD4" t="n">
-        <v>1104646.284384079</v>
+        <v>1320833.586444174</v>
       </c>
       <c r="AE4" t="n">
-        <v>1511425.779848922</v>
+        <v>1807222.784038188</v>
       </c>
       <c r="AF4" t="n">
         <v>5.101648454449754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.52473958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1367177.424719545</v>
+        <v>1634743.977982691</v>
       </c>
     </row>
   </sheetData>
@@ -20058,28 +20058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1194.114102727382</v>
+        <v>1435.966759329999</v>
       </c>
       <c r="AB2" t="n">
-        <v>1633.839595947807</v>
+        <v>1964.753070497681</v>
       </c>
       <c r="AC2" t="n">
-        <v>1477.908238018822</v>
+        <v>1777.239794997635</v>
       </c>
       <c r="AD2" t="n">
-        <v>1194114.102727382</v>
+        <v>1435966.759329999</v>
       </c>
       <c r="AE2" t="n">
-        <v>1633839.595947807</v>
+        <v>1964753.070497681</v>
       </c>
       <c r="AF2" t="n">
         <v>5.205917404836371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.99739583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1477908.238018822</v>
+        <v>1777239.794997636</v>
       </c>
     </row>
     <row r="3">
@@ -20164,28 +20164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1066.568837772578</v>
+        <v>1289.843724958672</v>
       </c>
       <c r="AB3" t="n">
-        <v>1459.326537536682</v>
+        <v>1764.821088377525</v>
       </c>
       <c r="AC3" t="n">
-        <v>1320.050460971839</v>
+        <v>1596.389040644728</v>
       </c>
       <c r="AD3" t="n">
-        <v>1066568.837772578</v>
+        <v>1289843.724958672</v>
       </c>
       <c r="AE3" t="n">
-        <v>1459326.537536682</v>
+        <v>1764821.088377526</v>
       </c>
       <c r="AF3" t="n">
         <v>5.546396235633602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.98958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1320050.460971839</v>
+        <v>1596389.040644728</v>
       </c>
     </row>
   </sheetData>
@@ -20461,28 +20461,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1067.565030566534</v>
+        <v>1313.607697130371</v>
       </c>
       <c r="AB2" t="n">
-        <v>1460.689572466297</v>
+        <v>1797.336003495304</v>
       </c>
       <c r="AC2" t="n">
-        <v>1321.283409760803</v>
+        <v>1625.800777898635</v>
       </c>
       <c r="AD2" t="n">
-        <v>1067565.030566534</v>
+        <v>1313607.69713037</v>
       </c>
       <c r="AE2" t="n">
-        <v>1460689.572466297</v>
+        <v>1797336.003495304</v>
       </c>
       <c r="AF2" t="n">
         <v>6.452608574763673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.28515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1321283.409760803</v>
+        <v>1625800.777898635</v>
       </c>
     </row>
   </sheetData>
@@ -20758,28 +20758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2684.160862924491</v>
+        <v>3020.740444006827</v>
       </c>
       <c r="AB2" t="n">
-        <v>3672.58730947333</v>
+        <v>4133.110341153348</v>
       </c>
       <c r="AC2" t="n">
-        <v>3322.080731165719</v>
+        <v>3738.652091050312</v>
       </c>
       <c r="AD2" t="n">
-        <v>2684160.862924491</v>
+        <v>3020740.444006827</v>
       </c>
       <c r="AE2" t="n">
-        <v>3672587.30947333</v>
+        <v>4133110.341153348</v>
       </c>
       <c r="AF2" t="n">
         <v>2.665223892231242e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.00130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3322080.731165719</v>
+        <v>3738652.091050312</v>
       </c>
     </row>
     <row r="3">
@@ -20864,28 +20864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1607.258064232766</v>
+        <v>1847.667458811711</v>
       </c>
       <c r="AB3" t="n">
-        <v>2199.121390704684</v>
+        <v>2528.060130481542</v>
       </c>
       <c r="AC3" t="n">
-        <v>1989.240331662085</v>
+        <v>2286.785619783061</v>
       </c>
       <c r="AD3" t="n">
-        <v>1607258.064232766</v>
+        <v>1847667.458811711</v>
       </c>
       <c r="AE3" t="n">
-        <v>2199121.390704684</v>
+        <v>2528060.130481542</v>
       </c>
       <c r="AF3" t="n">
         <v>3.673521462490439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.3359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1989240.331662085</v>
+        <v>2286785.619783061</v>
       </c>
     </row>
     <row r="4">
@@ -20970,28 +20970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1348.847832422887</v>
+        <v>1570.083676425101</v>
       </c>
       <c r="AB4" t="n">
-        <v>1845.553111287569</v>
+        <v>2148.257753287993</v>
       </c>
       <c r="AC4" t="n">
-        <v>1669.416112596343</v>
+        <v>1943.23104841288</v>
       </c>
       <c r="AD4" t="n">
-        <v>1348847.832422887</v>
+        <v>1570083.676425101</v>
       </c>
       <c r="AE4" t="n">
-        <v>1845553.111287569</v>
+        <v>2148257.753287993</v>
       </c>
       <c r="AF4" t="n">
         <v>4.044882301453932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.81119791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1669416.112596343</v>
+        <v>1943231.04841288</v>
       </c>
     </row>
     <row r="5">
@@ -21076,28 +21076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1229.056222264945</v>
+        <v>1450.223735429598</v>
       </c>
       <c r="AB5" t="n">
-        <v>1681.648945436618</v>
+        <v>1984.260094170547</v>
       </c>
       <c r="AC5" t="n">
-        <v>1521.154730293265</v>
+        <v>1794.885095709442</v>
       </c>
       <c r="AD5" t="n">
-        <v>1229056.222264945</v>
+        <v>1450223.735429598</v>
       </c>
       <c r="AE5" t="n">
-        <v>1681648.945436618</v>
+        <v>1984260.094170547</v>
       </c>
       <c r="AF5" t="n">
         <v>4.217200411887516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.97526041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1521154.730293265</v>
+        <v>1794885.095709442</v>
       </c>
     </row>
     <row r="6">
@@ -21182,28 +21182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1217.136858148022</v>
+        <v>1428.752266958019</v>
       </c>
       <c r="AB6" t="n">
-        <v>1665.340345606612</v>
+        <v>1954.881883753398</v>
       </c>
       <c r="AC6" t="n">
-        <v>1506.402600341771</v>
+        <v>1768.310700461929</v>
       </c>
       <c r="AD6" t="n">
-        <v>1217136.858148022</v>
+        <v>1428752.266958019</v>
       </c>
       <c r="AE6" t="n">
-        <v>1665340.345606612</v>
+        <v>1954881.883753398</v>
       </c>
       <c r="AF6" t="n">
         <v>4.239470926967786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.74739583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1506402.600341771</v>
+        <v>1768310.700461929</v>
       </c>
     </row>
     <row r="7">
@@ -21288,28 +21288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1221.273089707057</v>
+        <v>1432.888498517055</v>
       </c>
       <c r="AB7" t="n">
-        <v>1670.999720103341</v>
+        <v>1960.541258250128</v>
       </c>
       <c r="AC7" t="n">
-        <v>1511.521852079514</v>
+        <v>1773.429952199672</v>
       </c>
       <c r="AD7" t="n">
-        <v>1221273.089707057</v>
+        <v>1432888.498517055</v>
       </c>
       <c r="AE7" t="n">
-        <v>1670999.720103341</v>
+        <v>1960541.258250128</v>
       </c>
       <c r="AF7" t="n">
         <v>4.239470926967786e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.75390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1511521.852079514</v>
+        <v>1773429.952199673</v>
       </c>
     </row>
   </sheetData>
@@ -21585,28 +21585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3780.557758117038</v>
+        <v>4179.61158798313</v>
       </c>
       <c r="AB2" t="n">
-        <v>5172.72591109312</v>
+        <v>5718.728966128413</v>
       </c>
       <c r="AC2" t="n">
-        <v>4679.048210104611</v>
+        <v>5172.941499887414</v>
       </c>
       <c r="AD2" t="n">
-        <v>3780557.758117038</v>
+        <v>4179611.58798313</v>
       </c>
       <c r="AE2" t="n">
-        <v>5172725.91109312</v>
+        <v>5718728.966128413</v>
       </c>
       <c r="AF2" t="n">
         <v>2.036756103665567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.40364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4679048.210104611</v>
+        <v>5172941.499887413</v>
       </c>
     </row>
     <row r="3">
@@ -21691,28 +21691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1987.564246047407</v>
+        <v>2250.343638230842</v>
       </c>
       <c r="AB3" t="n">
-        <v>2719.47308658809</v>
+        <v>3079.019443982233</v>
       </c>
       <c r="AC3" t="n">
-        <v>2459.930392008571</v>
+        <v>2785.162149679383</v>
       </c>
       <c r="AD3" t="n">
-        <v>1987564.246047407</v>
+        <v>2250343.638230842</v>
       </c>
       <c r="AE3" t="n">
-        <v>2719473.08658809</v>
+        <v>3079019.443982232</v>
       </c>
       <c r="AF3" t="n">
         <v>3.069849510823092e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.34635416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2459930.392008571</v>
+        <v>2785162.149679383</v>
       </c>
     </row>
     <row r="4">
@@ -21797,28 +21797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1641.387077693606</v>
+        <v>1874.957483498159</v>
       </c>
       <c r="AB4" t="n">
-        <v>2245.818212587615</v>
+        <v>2565.39954620846</v>
       </c>
       <c r="AC4" t="n">
-        <v>2031.480474403911</v>
+        <v>2320.561414079201</v>
       </c>
       <c r="AD4" t="n">
-        <v>1641387.077693606</v>
+        <v>1874957.48349816</v>
       </c>
       <c r="AE4" t="n">
-        <v>2245818.212587615</v>
+        <v>2565399.54620846</v>
       </c>
       <c r="AF4" t="n">
         <v>3.456976550904765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.36979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2031480.474403911</v>
+        <v>2320561.414079201</v>
       </c>
     </row>
     <row r="5">
@@ -21903,28 +21903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1469.726088751893</v>
+        <v>1693.62748557119</v>
       </c>
       <c r="AB5" t="n">
-        <v>2010.944074369216</v>
+        <v>2317.295843329864</v>
       </c>
       <c r="AC5" t="n">
-        <v>1819.022394289153</v>
+        <v>2096.136380387604</v>
       </c>
       <c r="AD5" t="n">
-        <v>1469726.088751893</v>
+        <v>1693627.48557119</v>
       </c>
       <c r="AE5" t="n">
-        <v>2010944.074369216</v>
+        <v>2317295.843329864</v>
       </c>
       <c r="AF5" t="n">
         <v>3.668525505231397e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.64192708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1819022.394289152</v>
+        <v>2096136.380387604</v>
       </c>
     </row>
     <row r="6">
@@ -22009,28 +22009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1368.137618570197</v>
+        <v>1582.235366788831</v>
       </c>
       <c r="AB6" t="n">
-        <v>1871.946247699624</v>
+        <v>2164.884232138391</v>
       </c>
       <c r="AC6" t="n">
-        <v>1693.290325112231</v>
+        <v>1958.270719457206</v>
       </c>
       <c r="AD6" t="n">
-        <v>1368137.618570197</v>
+        <v>1582235.366788831</v>
       </c>
       <c r="AE6" t="n">
-        <v>1871946.247699624</v>
+        <v>2164884.232138391</v>
       </c>
       <c r="AF6" t="n">
         <v>3.800586386350876e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.0859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1693290.325112231</v>
+        <v>1958270.719457206</v>
       </c>
     </row>
     <row r="7">
@@ -22115,28 +22115,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1304.984735603354</v>
+        <v>1519.048318403206</v>
       </c>
       <c r="AB7" t="n">
-        <v>1785.537687115825</v>
+        <v>2078.428924921344</v>
       </c>
       <c r="AC7" t="n">
-        <v>1615.128476275373</v>
+        <v>1880.066585420168</v>
       </c>
       <c r="AD7" t="n">
-        <v>1304984.735603353</v>
+        <v>1519048.318403206</v>
       </c>
       <c r="AE7" t="n">
-        <v>1785537.687115825</v>
+        <v>2078428.924921345</v>
       </c>
       <c r="AF7" t="n">
         <v>3.86900649999754e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.32421875000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>1615128.476275373</v>
+        <v>1880066.585420168</v>
       </c>
     </row>
     <row r="8">
@@ -22221,28 +22221,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1304.96048191976</v>
+        <v>1519.024064719613</v>
       </c>
       <c r="AB8" t="n">
-        <v>1785.504502155936</v>
+        <v>2078.395739961456</v>
       </c>
       <c r="AC8" t="n">
-        <v>1615.09845844148</v>
+        <v>1880.036567586275</v>
       </c>
       <c r="AD8" t="n">
-        <v>1304960.48191976</v>
+        <v>1519024.064719613</v>
       </c>
       <c r="AE8" t="n">
-        <v>1785504.502155936</v>
+        <v>2078395.739961455</v>
       </c>
       <c r="AF8" t="n">
         <v>3.873785846171388e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.27864583333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1615098.458441481</v>
+        <v>1880036.567586275</v>
       </c>
     </row>
     <row r="9">
@@ -22327,28 +22327,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1309.185047622623</v>
+        <v>1523.248630422475</v>
       </c>
       <c r="AB9" t="n">
-        <v>1791.284739325277</v>
+        <v>2084.175977130797</v>
       </c>
       <c r="AC9" t="n">
-        <v>1620.327037887994</v>
+        <v>1885.265147032788</v>
       </c>
       <c r="AD9" t="n">
-        <v>1309185.047622623</v>
+        <v>1523248.630422475</v>
       </c>
       <c r="AE9" t="n">
-        <v>1791284.739325277</v>
+        <v>2084175.977130797</v>
       </c>
       <c r="AF9" t="n">
         <v>3.873534301635923e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.27864583333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1620327.037887994</v>
+        <v>1885265.147032788</v>
       </c>
     </row>
   </sheetData>
@@ -22624,28 +22624,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1123.395812086459</v>
+        <v>1394.184407592089</v>
       </c>
       <c r="AB2" t="n">
-        <v>1537.079710822103</v>
+        <v>1907.584613542607</v>
       </c>
       <c r="AC2" t="n">
-        <v>1390.382980526164</v>
+        <v>1725.527415337921</v>
       </c>
       <c r="AD2" t="n">
-        <v>1123395.812086459</v>
+        <v>1394184.407592089</v>
       </c>
       <c r="AE2" t="n">
-        <v>1537079.710822103</v>
+        <v>1907584.613542608</v>
       </c>
       <c r="AF2" t="n">
         <v>6.710587150476458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.20572916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1390382.980526164</v>
+        <v>1725527.415337921</v>
       </c>
     </row>
   </sheetData>
@@ -22921,28 +22921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1688.359585076236</v>
+        <v>1962.141382193596</v>
       </c>
       <c r="AB2" t="n">
-        <v>2310.0880694693</v>
+        <v>2684.68840268571</v>
       </c>
       <c r="AC2" t="n">
-        <v>2089.616506348118</v>
+        <v>2428.465509517223</v>
       </c>
       <c r="AD2" t="n">
-        <v>1688359.585076236</v>
+        <v>1962141.382193596</v>
       </c>
       <c r="AE2" t="n">
-        <v>2310088.0694693</v>
+        <v>2684688.40268571</v>
       </c>
       <c r="AF2" t="n">
         <v>3.894478202406811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.61848958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2089616.506348118</v>
+        <v>2428465.509517224</v>
       </c>
     </row>
     <row r="3">
@@ -23027,28 +23027,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1159.095211510534</v>
+        <v>1385.627303906541</v>
       </c>
       <c r="AB3" t="n">
-        <v>1585.92520406047</v>
+        <v>1895.876406767269</v>
       </c>
       <c r="AC3" t="n">
-        <v>1434.566728444942</v>
+        <v>1714.936623384649</v>
       </c>
       <c r="AD3" t="n">
-        <v>1159095.211510534</v>
+        <v>1385627.303906541</v>
       </c>
       <c r="AE3" t="n">
-        <v>1585925.20406047</v>
+        <v>1895876.406767269</v>
       </c>
       <c r="AF3" t="n">
         <v>4.826012370076303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.8828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1434566.728444942</v>
+        <v>1714936.623384649</v>
       </c>
     </row>
     <row r="4">
@@ -23133,28 +23133,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1124.808414782775</v>
+        <v>1332.48946790639</v>
       </c>
       <c r="AB4" t="n">
-        <v>1539.012496150835</v>
+        <v>1823.17087527599</v>
       </c>
       <c r="AC4" t="n">
-        <v>1392.131303535803</v>
+        <v>1649.170005776044</v>
       </c>
       <c r="AD4" t="n">
-        <v>1124808.414782775</v>
+        <v>1332489.46790639</v>
       </c>
       <c r="AE4" t="n">
-        <v>1539012.496150835</v>
+        <v>1823170.87527599</v>
       </c>
       <c r="AF4" t="n">
         <v>4.918167714520749e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.03645833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1392131.303535803</v>
+        <v>1649170.005776044</v>
       </c>
     </row>
   </sheetData>
@@ -23430,28 +23430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2244.237876696723</v>
+        <v>2559.448662761412</v>
       </c>
       <c r="AB2" t="n">
-        <v>3070.665271684061</v>
+        <v>3501.950575296231</v>
       </c>
       <c r="AC2" t="n">
-        <v>2777.605287860194</v>
+        <v>3167.729327408329</v>
       </c>
       <c r="AD2" t="n">
-        <v>2244237.876696723</v>
+        <v>2559448.662761413</v>
       </c>
       <c r="AE2" t="n">
-        <v>3070665.271684061</v>
+        <v>3501950.575296232</v>
       </c>
       <c r="AF2" t="n">
         <v>3.073495442014944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.74739583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2777605.287860194</v>
+        <v>3167729.327408329</v>
       </c>
     </row>
     <row r="3">
@@ -23536,28 +23536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1424.418084381687</v>
+        <v>1653.635349934134</v>
       </c>
       <c r="AB3" t="n">
-        <v>1948.95166394182</v>
+        <v>2262.57683902274</v>
       </c>
       <c r="AC3" t="n">
-        <v>1762.946452506052</v>
+        <v>2046.639681052947</v>
       </c>
       <c r="AD3" t="n">
-        <v>1424418.084381687</v>
+        <v>1653635.349934134</v>
       </c>
       <c r="AE3" t="n">
-        <v>1948951.663941819</v>
+        <v>2262576.83902274</v>
       </c>
       <c r="AF3" t="n">
         <v>4.066493680244737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.42838541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1762946.452506052</v>
+        <v>2046639.681052947</v>
       </c>
     </row>
     <row r="4">
@@ -23642,28 +23642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1213.033352388377</v>
+        <v>1432.728824380626</v>
       </c>
       <c r="AB4" t="n">
-        <v>1659.725747992368</v>
+        <v>1960.32278505234</v>
       </c>
       <c r="AC4" t="n">
-        <v>1501.323852043693</v>
+        <v>1773.232329777253</v>
       </c>
       <c r="AD4" t="n">
-        <v>1213033.352388377</v>
+        <v>1432728.824380626</v>
       </c>
       <c r="AE4" t="n">
-        <v>1659725.747992368</v>
+        <v>1960322.78505234</v>
       </c>
       <c r="AF4" t="n">
         <v>4.409836448176815e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.73697916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1501323.852043693</v>
+        <v>1773232.329777253</v>
       </c>
     </row>
     <row r="5">
@@ -23748,28 +23748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1181.156556793218</v>
+        <v>1391.263926447421</v>
       </c>
       <c r="AB5" t="n">
-        <v>1616.110509954101</v>
+        <v>1903.588682397937</v>
       </c>
       <c r="AC5" t="n">
-        <v>1461.871191109428</v>
+        <v>1721.912850253373</v>
       </c>
       <c r="AD5" t="n">
-        <v>1181156.556793218</v>
+        <v>1391263.926447421</v>
       </c>
       <c r="AE5" t="n">
-        <v>1616110.509954101</v>
+        <v>1903588.682397937</v>
       </c>
       <c r="AF5" t="n">
         <v>4.473824401475633e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.11197916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1461871.191109428</v>
+        <v>1721912.850253373</v>
       </c>
     </row>
   </sheetData>
